--- a/data/import_excel/SR样本信息导入模板.xlsx
+++ b/data/import_excel/SR样本信息导入模板.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>202308141752_TEST_SR</t>
+          <t>202308151815_TEST_SR</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">

--- a/data/import_excel/SR样本信息导入模板.xlsx
+++ b/data/import_excel/SR样本信息导入模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4680" yWindow="810" windowWidth="22890" windowHeight="12060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -35,7 +35,6 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="3"/>
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
@@ -71,10 +70,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -415,10 +414,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -446,8 +445,8 @@
     <col width="6.875" customWidth="1" style="1" min="27" max="27"/>
     <col width="14.5" customWidth="1" style="1" min="28" max="28"/>
     <col width="11" customWidth="1" style="1" min="29" max="29"/>
-    <col width="9" customWidth="1" style="1" min="30" max="31"/>
-    <col width="9" customWidth="1" style="1" min="32" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="30" max="32"/>
+    <col width="9" customWidth="1" style="1" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="57" customHeight="1">
@@ -609,14 +608,14 @@
       </c>
     </row>
     <row r="2" ht="28.5" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>J022</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>202308151815_TEST_SR</t>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>GS2308160003_TEST_SR</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -719,9 +718,9 @@
           <t xml:space="preserve"> F类</t>
         </is>
       </c>
-      <c r="AB2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2021.01.20</t>
+      <c r="AB2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023.08.20</t>
         </is>
       </c>
       <c r="AC2" s="1" t="n">
@@ -731,6 +730,262 @@
         <v>2</v>
       </c>
       <c r="AE2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 否</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>J022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GS2308160001_TEST_SR</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 靶向富集</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HiseqX</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PE150 </t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 单</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 不混样包Lane</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> G</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 单梯度绝对</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 双标签</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 是</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 是</t>
+        </is>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 否</t>
+        </is>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="V3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 暂无</t>
+        </is>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 包埋文库</t>
+        </is>
+      </c>
+      <c r="Z3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F类</t>
+        </is>
+      </c>
+      <c r="AB3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023.08.20</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 否</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>J022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GS2308160002_TEST_SR</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 靶向富集</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HiseqX</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PE150 </t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 单</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 不混样包Lane</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> G</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 单梯度绝对</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 双标签</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 是</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 是</t>
+        </is>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 否</t>
+        </is>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="V4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 暂无</t>
+        </is>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 包埋文库</t>
+        </is>
+      </c>
+      <c r="Z4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F类</t>
+        </is>
+      </c>
+      <c r="AB4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023.08.20</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 否</t>
         </is>

--- a/data/import_excel/SR样本信息导入模板.xlsx
+++ b/data/import_excel/SR样本信息导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\import_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C07E3D8-1207-4A77-836A-7DC250BDCBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF2ED61-4B7B-4433-A002-C9C2CC92922D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34020" yWindow="3555" windowWidth="22890" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="55">
   <si>
     <t>所属项目</t>
   </si>
@@ -161,13 +161,39 @@
     <t xml:space="preserve"> 2023.08.20</t>
   </si>
   <si>
-    <t>GS2308160001_TEST_SR</t>
-  </si>
-  <si>
-    <t>GS2308160002_TEST_SR</t>
-  </si>
-  <si>
-    <t>GS2308220001_TEST_SR</t>
+    <t>GS2308230003_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308230008_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308230004_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308230010_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308230006_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308230005_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308230007_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308230009_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J022</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -235,6 +261,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,10 +672,10 @@
     </row>
     <row r="2" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -737,8 +766,8 @@
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>46</v>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -829,8 +858,8 @@
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -916,6 +945,469 @@
       <c r="AE4" s="1" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2100</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N5" s="1">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1">
+        <v>330</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="1">
+        <v>12</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2</v>
+      </c>
+      <c r="X5" s="1">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2100</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N6" s="1">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1">
+        <v>330</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="1">
+        <v>12</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="1">
+        <v>2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>34</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2100</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N7" s="1">
+        <v>24</v>
+      </c>
+      <c r="O7" s="1">
+        <v>330</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="1">
+        <v>12</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2</v>
+      </c>
+      <c r="X7" s="1">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2100</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N8" s="1">
+        <v>24</v>
+      </c>
+      <c r="O8" s="1">
+        <v>330</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="1">
+        <v>2</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="1">
+        <v>12</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="1">
+        <v>2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>34</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2100</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N9" s="1">
+        <v>24</v>
+      </c>
+      <c r="O9" s="1">
+        <v>330</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="1">
+        <v>12</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9" s="1">
+        <v>2</v>
+      </c>
+      <c r="X9" s="1">
+        <v>34</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/import_excel/SR样本信息导入模板.xlsx
+++ b/data/import_excel/SR样本信息导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\import_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF2ED61-4B7B-4433-A002-C9C2CC92922D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1C162-5FB7-488F-8F1D-EC0F71E00C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7125" yWindow="7695" windowWidth="22890" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>所属项目</t>
   </si>
@@ -161,40 +161,17 @@
     <t xml:space="preserve"> 2023.08.20</t>
   </si>
   <si>
-    <t>GS2308230003_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308230008_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308230004_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308230010_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308230006_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308230005_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308230007_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308230009_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>J022</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308280004test</t>
+  </si>
+  <si>
+    <t>GS2308280005test</t>
+  </si>
+  <si>
+    <t>GS2308280006test</t>
   </si>
 </sst>
 </file>
@@ -672,10 +649,10 @@
     </row>
     <row r="2" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -767,7 +744,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -859,7 +836,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -947,464 +924,29 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2100</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N5" s="1">
-        <v>24</v>
-      </c>
-      <c r="O5" s="1">
-        <v>330</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="1">
-        <v>2</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="1">
-        <v>12</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" s="1">
-        <v>2</v>
-      </c>
-      <c r="X5" s="1">
-        <v>34</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="AB5" s="3"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2100</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N6" s="1">
-        <v>24</v>
-      </c>
-      <c r="O6" s="1">
-        <v>330</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="1">
-        <v>2</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="1">
-        <v>12</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W6" s="1">
-        <v>2</v>
-      </c>
-      <c r="X6" s="1">
-        <v>34</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2100</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="M7" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N7" s="1">
-        <v>24</v>
-      </c>
-      <c r="O7" s="1">
-        <v>330</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="1">
-        <v>2</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" s="1">
-        <v>12</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W7" s="1">
-        <v>2</v>
-      </c>
-      <c r="X7" s="1">
-        <v>34</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2100</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N8" s="1">
-        <v>24</v>
-      </c>
-      <c r="O8" s="1">
-        <v>330</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="1">
-        <v>2</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="1">
-        <v>12</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W8" s="1">
-        <v>2</v>
-      </c>
-      <c r="X8" s="1">
-        <v>34</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2100</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="M9" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N9" s="1">
-        <v>24</v>
-      </c>
-      <c r="O9" s="1">
-        <v>330</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="1">
-        <v>2</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" s="1">
-        <v>12</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W9" s="1">
-        <v>2</v>
-      </c>
-      <c r="X9" s="1">
-        <v>34</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AB10" s="3"/>

--- a/data/import_excel/SR样本信息导入模板.xlsx
+++ b/data/import_excel/SR样本信息导入模板.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>所属项目</t>
-  </si>
-  <si>
-    <t>客户样本号</t>
-  </si>
-  <si>
-    <t>文库类型</t>
-  </si>
-  <si>
-    <t>测序平台</t>
-  </si>
-  <si>
-    <t>测序读长</t>
-  </si>
-  <si>
-    <t>测序模式</t>
-  </si>
-  <si>
-    <t>项目类型</t>
-  </si>
-  <si>
-    <t>数据量</t>
-  </si>
-  <si>
-    <t>数据量单位</t>
-  </si>
-  <si>
-    <t>定量方式</t>
-  </si>
-  <si>
-    <t>是否安排2100/Qsep100</t>
-  </si>
-  <si>
-    <t>客户质量浓度(ng/ul)</t>
-  </si>
-  <si>
-    <t>客户摩尔浓度（nM）</t>
-  </si>
-  <si>
-    <t>客户体积（ul）</t>
-  </si>
-  <si>
-    <t>文库全长（bp）
-（插入片段+接头120bp）</t>
-  </si>
-  <si>
-    <t>标签测序模式</t>
-  </si>
-  <si>
-    <t>是否拆分数据</t>
-  </si>
-  <si>
-    <t>是否添加PhiX</t>
-  </si>
-  <si>
-    <t>添加PhiX比例</t>
-  </si>
-  <si>
-    <t>是否添加特殊引物</t>
-  </si>
-  <si>
-    <t>客户引物编号</t>
-  </si>
-  <si>
-    <t>引物功能（R1、INDEX、R2引物）</t>
-  </si>
-  <si>
-    <t>引物浓度（uM）</t>
-  </si>
-  <si>
-    <t>世和引物编号</t>
-  </si>
-  <si>
-    <t>特殊文库类型</t>
-  </si>
-  <si>
-    <t>试剂盒类型</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>数据交付日期</t>
-  </si>
-  <si>
-    <t>实际周期</t>
-  </si>
-  <si>
-    <t>合同周期</t>
-  </si>
-  <si>
-    <t>是否按期</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,109 +420,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>所属项目</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>客户样本号</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>文库类型</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>测序平台</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>测序读长</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>测序模式</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>项目类型</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>数据量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>数据量单位</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>定量方式</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>是否安排2100/Qsep100</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>客户质量浓度(ng/ul)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>客户摩尔浓度（nM）</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>客户体积（ul）</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>文库全长（bp）
+（插入片段+接头120bp）</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>标签测序模式</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>是否拆分数据</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>是否添加PhiX</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>添加PhiX比例</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>是否添加特殊引物</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>客户引物编号</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>引物功能（R1、INDEX、R2引物）</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>引物浓度（uM）</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>世和引物编号</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>特殊文库类型</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>试剂盒类型</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>数据交付日期</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>实际周期</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>合同周期</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>是否按期</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/import_excel/SR样本信息导入模板.xlsx
+++ b/data/import_excel/SR样本信息导入模板.xlsx
@@ -1,37 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>所属项目</t>
+  </si>
+  <si>
+    <t>客户样本号</t>
+  </si>
+  <si>
+    <t>文库类型</t>
+  </si>
+  <si>
+    <t>测序平台</t>
+  </si>
+  <si>
+    <t>测序读长</t>
+  </si>
+  <si>
+    <t>测序模式</t>
+  </si>
+  <si>
+    <t>项目类型</t>
+  </si>
+  <si>
+    <t>数据量</t>
+  </si>
+  <si>
+    <t>数据量单位</t>
+  </si>
+  <si>
+    <t>定量方式</t>
+  </si>
+  <si>
+    <t>是否安排2100/Qsep100</t>
+  </si>
+  <si>
+    <t>客户质量浓度(ng/ul)</t>
+  </si>
+  <si>
+    <t>客户摩尔浓度（nM）</t>
+  </si>
+  <si>
+    <t>客户体积（ul）</t>
+  </si>
+  <si>
+    <t>文库全长（bp）
+（插入片段+接头120bp）</t>
+  </si>
+  <si>
+    <t>标签测序模式</t>
+  </si>
+  <si>
+    <t>是否拆分数据</t>
+  </si>
+  <si>
+    <t>是否添加PhiX</t>
+  </si>
+  <si>
+    <t>添加PhiX比例</t>
+  </si>
+  <si>
+    <t>是否添加特殊引物</t>
+  </si>
+  <si>
+    <t>客户引物编号</t>
+  </si>
+  <si>
+    <t>引物功能（R1、INDEX、R2引物）</t>
+  </si>
+  <si>
+    <t>引物浓度（uM）</t>
+  </si>
+  <si>
+    <t>世和引物编号</t>
+  </si>
+  <si>
+    <t>特殊文库类型</t>
+  </si>
+  <si>
+    <t>试剂盒类型</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>数据交付日期</t>
+  </si>
+  <si>
+    <t>实际周期</t>
+  </si>
+  <si>
+    <t>合同周期</t>
+  </si>
+  <si>
+    <t>是否按期</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +148,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,178 +464,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>所属项目</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>客户样本号</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>文库类型</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>测序平台</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>测序读长</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>测序模式</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>项目类型</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>数据量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>数据量单位</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>定量方式</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>是否安排2100/Qsep100</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>客户质量浓度(ng/ul)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>客户摩尔浓度（nM）</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>客户体积（ul）</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>文库全长（bp）
-（插入片段+接头120bp）</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>标签测序模式</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>是否拆分数据</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>是否添加PhiX</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>添加PhiX比例</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>是否添加特殊引物</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>客户引物编号</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>引物功能（R1、INDEX、R2引物）</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>引物浓度（uM）</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>世和引物编号</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>特殊文库类型</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>试剂盒类型</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>数据交付日期</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>实际周期</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>合同周期</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>是否按期</t>
-        </is>
+    <row r="1" spans="1:31">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/import_excel/SR样本信息导入模板.xlsx
+++ b/data/import_excel/SR样本信息导入模板.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>所属项目</t>
-  </si>
-  <si>
-    <t>客户样本号</t>
-  </si>
-  <si>
-    <t>文库类型</t>
-  </si>
-  <si>
-    <t>测序平台</t>
-  </si>
-  <si>
-    <t>测序读长</t>
-  </si>
-  <si>
-    <t>测序模式</t>
-  </si>
-  <si>
-    <t>项目类型</t>
-  </si>
-  <si>
-    <t>数据量</t>
-  </si>
-  <si>
-    <t>数据量单位</t>
-  </si>
-  <si>
-    <t>定量方式</t>
-  </si>
-  <si>
-    <t>是否安排2100/Qsep100</t>
-  </si>
-  <si>
-    <t>客户质量浓度(ng/ul)</t>
-  </si>
-  <si>
-    <t>客户摩尔浓度（nM）</t>
-  </si>
-  <si>
-    <t>客户体积（ul）</t>
-  </si>
-  <si>
-    <t>文库全长（bp）
-（插入片段+接头120bp）</t>
-  </si>
-  <si>
-    <t>标签测序模式</t>
-  </si>
-  <si>
-    <t>是否拆分数据</t>
-  </si>
-  <si>
-    <t>是否添加PhiX</t>
-  </si>
-  <si>
-    <t>添加PhiX比例</t>
-  </si>
-  <si>
-    <t>是否添加特殊引物</t>
-  </si>
-  <si>
-    <t>客户引物编号</t>
-  </si>
-  <si>
-    <t>引物功能（R1、INDEX、R2引物）</t>
-  </si>
-  <si>
-    <t>引物浓度（uM）</t>
-  </si>
-  <si>
-    <t>世和引物编号</t>
-  </si>
-  <si>
-    <t>特殊文库类型</t>
-  </si>
-  <si>
-    <t>试剂盒类型</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>数据交付日期</t>
-  </si>
-  <si>
-    <t>实际周期</t>
-  </si>
-  <si>
-    <t>合同周期</t>
-  </si>
-  <si>
-    <t>是否按期</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,109 +420,444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>所属项目</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>客户样本号</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>文库类型</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>测序平台</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>测序读长</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>测序模式</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>项目类型</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>数据量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>数据量单位</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>定量方式</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>是否安排2100/Qsep100</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>客户质量浓度(ng/ul)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>客户摩尔浓度（nM）</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>客户体积（ul）</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>文库全长（bp）
+（插入片段+接头120bp）</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>标签测序模式</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>是否拆分数据</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>是否添加PhiX</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>添加PhiX比例</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>是否添加特殊引物</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>客户引物编号</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>引物功能（R1、INDEX、R2引物）</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>引物浓度（uM）</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>世和引物编号</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>特殊文库类型</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>试剂盒类型</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>数据交付日期</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>实际周期</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>合同周期</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>是否按期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>J022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GS2309080096_TEST_SR</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>靶向富集</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HiseqX</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PE150</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>单</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>不混样包Lane</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>单梯度绝对</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24</v>
+      </c>
+      <c r="O2" t="n">
+        <v>330</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>双标签</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>暂无</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>包埋文库</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>F类</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>2023.09.08</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>J022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GS2309080098_TEST_SR</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>靶向富集</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HiseqX</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PE150</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>单</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>不混样包Lane</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>单梯度绝对</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N3" t="n">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
+      <c r="O3" t="n">
+        <v>330</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>双标签</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>12</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>暂无</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>包埋文库</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>F类</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2023.09.08</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/import_excel/SR样本信息导入模板.xlsx
+++ b/data/import_excel/SR样本信息导入模板.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GS2309080096_TEST_SR</t>
+          <t>GS2309110007_TEST_SR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2023.09.08</t>
+          <t>2023.09.11</t>
         </is>
       </c>
       <c r="AC2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GS2309080098_TEST_SR</t>
+          <t>GS2309110005_TEST_SR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2023.09.08</t>
+          <t>2023.09.11</t>
         </is>
       </c>
       <c r="AC3" t="n">

--- a/data/import_excel/SR样本信息导入模板.xlsx
+++ b/data/import_excel/SR样本信息导入模板.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GS2309110007_TEST_SR</t>
+          <t>GS2309120063_TEST_SR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2023.09.11</t>
+          <t>2023.09.12</t>
         </is>
       </c>
       <c r="AC2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GS2309110005_TEST_SR</t>
+          <t>GS2309120061_TEST_SR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2023.09.11</t>
+          <t>2023.09.12</t>
         </is>
       </c>
       <c r="AC3" t="n">

--- a/data/import_excel/SR样本信息导入模板.xlsx
+++ b/data/import_excel/SR样本信息导入模板.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GS2309120063_TEST_SR</t>
+          <t>GS2309150040_TEST_SR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2023.09.12</t>
+          <t>2023.09.15</t>
         </is>
       </c>
       <c r="AC2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GS2309120061_TEST_SR</t>
+          <t>GS2309150038_TEST_SR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2023.09.12</t>
+          <t>2023.09.15</t>
         </is>
       </c>
       <c r="AC3" t="n">

--- a/data/import_excel/SR样本信息导入模板.xlsx
+++ b/data/import_excel/SR样本信息导入模板.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GS2309150040_TEST_SR</t>
+          <t>GS2309180006_TEST_SR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2023.09.15</t>
+          <t>2023.09.18</t>
         </is>
       </c>
       <c r="AC2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GS2309150038_TEST_SR</t>
+          <t>GS2309180008_TEST_SR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2023.09.15</t>
+          <t>2023.09.18</t>
         </is>
       </c>
       <c r="AC3" t="n">

--- a/data/import_excel/SR样本信息导入模板.xlsx
+++ b/data/import_excel/SR样本信息导入模板.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GS2309180006_TEST_SR</t>
+          <t>GS2401150009_TEST_SR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2023.09.18</t>
+          <t>2024.01.15</t>
         </is>
       </c>
       <c r="AC2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GS2309180008_TEST_SR</t>
+          <t>GS2401150011_TEST_SR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2023.09.18</t>
+          <t>2024.01.15</t>
         </is>
       </c>
       <c r="AC3" t="n">

--- a/data/import_excel/SR样本信息导入模板.xlsx
+++ b/data/import_excel/SR样本信息导入模板.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -440,7 +427,7 @@
   </sheetPr>
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -612,7 +599,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GS2401160013_TEST_SR</t>
+          <t>GS2404290631_TEST_SR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -722,7 +709,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2024.01.16</t>
+          <t>2024.04.29</t>
         </is>
       </c>
       <c r="AC2" t="n">
@@ -745,7 +732,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GS2401160011_TEST_SR</t>
+          <t>GS2404290629_TEST_SR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -855,7 +842,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2024.01.16</t>
+          <t>2024.04.29</t>
         </is>
       </c>
       <c r="AC3" t="n">
@@ -871,6 +858,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/import_excel/SR样本信息导入模板.xlsx
+++ b/data/import_excel/SR样本信息导入模板.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GS2404290631_TEST_SR</t>
+          <t>GS2405210051_TEST_SR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2024.04.29</t>
+          <t>2024.05.21</t>
         </is>
       </c>
       <c r="AC2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GS2404290629_TEST_SR</t>
+          <t>GS2405210049_TEST_SR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2024.04.29</t>
+          <t>2024.05.21</t>
         </is>
       </c>
       <c r="AC3" t="n">
